--- a/Noscapine/New_pathway_noscapine.xlsx
+++ b/Noscapine/New_pathway_noscapine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Noscapine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998797D8-3F6F-E148-9D2B-77AA761BD5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AD3D6A-D881-144D-A46F-A09BEAAF8129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{AA1C94E4-56CD-3140-BF87-113D1E6E5D47}"/>
   </bookViews>
   <sheets>
     <sheet name="Metabolic_rxns" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="194">
   <si>
     <t>Description</t>
   </si>
@@ -745,9 +745,6 @@
     <t>FE_II</t>
   </si>
   <si>
-    <t>HEME_A</t>
-  </si>
-  <si>
     <t>new_r_S9OMT</t>
   </si>
   <si>
@@ -924,6 +921,15 @@
   </si>
   <si>
     <t>short-chain dehydrogenase/reductase</t>
+  </si>
+  <si>
+    <t>FE_III</t>
+  </si>
+  <si>
+    <t>PDBe:2toh</t>
+  </si>
+  <si>
+    <t>HEME_B</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063BEFC-4FD3-134C-989A-E924DACA1919}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1328,13 +1334,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>138</v>
@@ -1444,13 +1450,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>144</v>
@@ -1461,13 +1467,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>145</v>
@@ -1566,7 +1572,7 @@
         <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>102</v>
@@ -1580,10 +1586,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>87</v>
@@ -1597,10 +1603,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>88</v>
@@ -1614,10 +1620,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>91</v>
@@ -1631,10 +1637,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>94</v>
@@ -1648,10 +1654,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>98</v>
@@ -1665,10 +1671,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>101</v>
@@ -1682,10 +1688,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>110</v>
@@ -1716,10 +1722,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>136</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>135</v>
@@ -1781,8 +1787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8042DFE1-B4A0-714F-8A18-C4BDC72AEB89}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1831,13 +1837,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2084,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -2176,7 +2182,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2222,7 +2228,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2245,7 +2251,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -2291,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
@@ -2404,7 +2410,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>138</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>144</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>145</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>152</v>
@@ -2569,7 +2575,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>153</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>154</v>
@@ -2591,7 +2597,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>155</v>
@@ -2602,7 +2608,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>156</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>157</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>158</v>
@@ -2635,7 +2641,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>160</v>
@@ -2646,7 +2652,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>161</v>
@@ -2700,7 +2706,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1">
         <v>2.5</v>
@@ -2769,7 +2775,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1">
         <v>1.8</v>
@@ -2791,7 +2797,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1">
         <v>5.8</v>
@@ -2858,7 +2864,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="1">
         <f>2036*42699/1000000/60</f>
@@ -2870,7 +2876,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="1">
         <v>0.04</v>
@@ -2881,7 +2887,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B18" s="1">
         <v>0.14000000000000001</v>
@@ -2892,7 +2898,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="1">
         <v>0.45</v>
@@ -2903,7 +2909,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1">
         <v>0.45</v>
@@ -2914,7 +2920,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B21" s="1">
         <f>324*52494/1000000/60</f>
@@ -2926,7 +2932,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="1">
         <f>54.5*61207/1000000/60</f>
@@ -2938,7 +2944,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1">
         <f>336*36168/1000000/60</f>
@@ -2950,7 +2956,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="1">
         <v>1.73</v>
